--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,91 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4426000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2812000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2218000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2206000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2173000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2136000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2069000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1994000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1921000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +777,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +812,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +831,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +862,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +897,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +932,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="F15" s="3">
         <v>-29000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>-32000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>-32000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>-34000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-31000</v>
       </c>
       <c r="J15" s="3">
         <v>-33000</v>
       </c>
       <c r="K15" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="M15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +983,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>756000</v>
+      </c>
+      <c r="F17" s="3">
         <v>635000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>688000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>632000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>577000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>517000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>472000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>438000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3650000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2056000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1583000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1518000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1541000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1559000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1552000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1522000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1483000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1068,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2363000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1177000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-537000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-399000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-566000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-549000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-503000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-498000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-506000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1187000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1258000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1112000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1152000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1188000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1160000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1115000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1169,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>879000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1046000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1119000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>975000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1010000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1049000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1024000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>977000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F24" s="3">
         <v>218000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>234000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>177000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>232000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>210000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>202000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>186000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1274,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>726000</v>
+      </c>
+      <c r="F26" s="3">
         <v>828000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>885000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>798000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>778000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>839000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>822000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>791000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>702000</v>
+      </c>
+      <c r="F27" s="3">
         <v>735000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>842000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>749000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>727000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>789000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>775000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>745000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1379,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>27000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1449,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1484,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2363000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="F32" s="3">
         <v>537000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>399000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>566000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>549000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>503000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>498000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>506000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>702000</v>
+      </c>
+      <c r="F33" s="3">
         <v>735000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>842000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>749000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>754000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>789000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>775000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>745000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1589,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>702000</v>
+      </c>
+      <c r="F35" s="3">
         <v>735000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>842000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>749000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>754000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>789000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>775000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>745000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1683,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1698,80 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5312000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4084000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2027000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1831000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1873000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2753000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2123000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2046000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1869000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>42150000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>22131000</v>
+      </c>
+      <c r="F42" s="3">
         <v>980000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>855000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1004000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1128000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>884000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>876000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1045000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1799,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1834,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1869,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,8 +1904,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,66 +1939,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2022000</v>
+        <v>5772000</v>
       </c>
       <c r="E48" s="3">
-        <v>2029000</v>
+        <v>5535000</v>
       </c>
       <c r="F48" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2871000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2118000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="L48" s="3">
         <v>2078000</v>
       </c>
-      <c r="G48" s="3">
-        <v>2118000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2154000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2154000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2078000</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29245000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29926000</v>
+      </c>
+      <c r="F49" s="3">
         <v>11429000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11512000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11580000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11684000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11800000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>11407000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11415000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2044,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2079,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>3915000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2149,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>506229000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>473078000</v>
+      </c>
+      <c r="F54" s="3">
         <v>236750000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>230872000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>227683000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>225697000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>222885000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>222681000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>220729000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2203,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,37 +2218,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6242000</v>
+        <v>9552000</v>
       </c>
       <c r="E57" s="3">
-        <v>6603000</v>
+        <v>10115000</v>
       </c>
       <c r="F57" s="3">
-        <v>6000000</v>
+        <v>5274000</v>
       </c>
       <c r="G57" s="3">
+        <v>5642000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5041000</v>
+      </c>
+      <c r="I57" s="3">
         <v>5433000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5434000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5717000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5140000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2284,49 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>2079000</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>2121000</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>968000</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>961000</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>959000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,37 +2354,49 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65662000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>37198000</v>
+      </c>
+      <c r="F61" s="3">
         <v>23880000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>20897000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>22983000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>21960000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>20799000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>21641000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>20959000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2134,8 +2424,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2459,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2494,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2529,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>440335000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>406694000</v>
+      </c>
+      <c r="F66" s="3">
         <v>204516000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>199169000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>196860000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>195575000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>192937000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>192901000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>191117000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2583,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2614,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,19 +2649,25 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4599000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5102000</v>
+      </c>
+      <c r="F70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>3053000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3053000</v>
       </c>
       <c r="G70" s="3">
         <v>3053000</v>
@@ -2350,8 +2684,14 @@
       <c r="K70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>3053000</v>
+      </c>
+      <c r="M70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2719,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18076000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>19806000</v>
+      </c>
+      <c r="F72" s="3">
         <v>19440000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>19050000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>18518000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>18118000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>17673000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>17197000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16712000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2789,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2824,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2859,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61295000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>61282000</v>
+      </c>
+      <c r="F76" s="3">
         <v>29177000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>28650000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27770000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>27069000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>26895000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>26727000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26559000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2929,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>702000</v>
+      </c>
+      <c r="F81" s="3">
         <v>735000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>842000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>749000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>754000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>789000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>775000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>745000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3023,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>213000</v>
+      </c>
+      <c r="F83" s="3">
         <v>141000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>139000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>137000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>142000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>139000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>136000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>138000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3089,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3124,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3159,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3194,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3229,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4628000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1775000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>934000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-745000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1371000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1551000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1119000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>308000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3283,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+        <v>-464000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-34000</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3349,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3384,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19515000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>17748000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6593000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-477000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>203000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3438,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-605000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-345000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-310000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-309000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-309000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-313000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-290000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-292000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3504,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3539,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,37 +3574,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32170000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1114000</v>
+      </c>
+      <c r="F100" s="3">
         <v>5135000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>207000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1677000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-281000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>589000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-483000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3148,33 +3644,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17283000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16190000</v>
+      </c>
+      <c r="F102" s="3">
         <v>317000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-271000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>834000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-58000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,97 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3888000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4426000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2812000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2218000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2206000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2173000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2136000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2069000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1994000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1921000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +789,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,8 +827,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,8 +845,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,8 +919,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,43 +957,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-165000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-71000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-32000</v>
       </c>
       <c r="H15" s="3">
         <v>-32000</v>
       </c>
       <c r="I15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="J15" s="3">
         <v>-34000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-33000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-31000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-33000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E17" s="3">
         <v>776000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>756000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>635000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>688000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>632000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>577000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>517000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>472000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>438000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3448000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3650000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2056000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1583000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1518000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1541000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1559000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1552000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1522000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1483000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,78 +1102,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2299000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-537000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-399000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-566000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-549000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-503000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-498000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-506000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1569000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1686000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1092000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1187000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1258000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1112000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1152000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1188000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1160000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1115000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,78 +1214,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1287000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>879000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1046000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1119000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>975000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1010000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1049000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1024000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>977000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E24" s="3">
         <v>224000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>153000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>218000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>234000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>177000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>232000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>210000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>202000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>186000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1063000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>726000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>828000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>885000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>798000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>778000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>839000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>822000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>791000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E27" s="3">
         <v>986000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>702000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>735000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>842000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>749000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>727000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>789000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>775000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>745000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,19 +1442,22 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1405,23 +1465,26 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>27000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2299000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2363000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1177000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>537000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>399000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>566000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>549000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>503000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>498000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>506000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E33" s="3">
         <v>986000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>702000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>735000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>842000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>749000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>754000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>789000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>775000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>745000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E35" s="3">
         <v>986000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>702000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>735000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>842000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>749000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>754000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>789000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>775000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>745000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,78 +1785,85 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5116000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5312000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4084000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2027000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1831000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1873000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2753000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2123000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2046000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1869000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>45693000</v>
+      </c>
+      <c r="E42" s="3">
         <v>42150000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22131000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>980000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>855000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1004000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1128000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>884000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>876000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1045000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1805,8 +1897,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1840,8 +1935,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1875,8 +1973,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1910,8 +2011,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1945,78 +2049,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5726000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5772000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5535000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2863000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2871000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2154000</v>
       </c>
       <c r="K48" s="3">
         <v>2154000</v>
       </c>
       <c r="L48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="M48" s="3">
         <v>2078000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28975000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29245000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29926000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11429000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11512000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11580000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11684000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11800000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11407000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11415000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,17 +2201,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3915000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2111,8 +2230,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2120,8 +2239,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>504336000</v>
+      </c>
+      <c r="E54" s="3">
         <v>506229000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>473078000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>236750000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>230872000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>227683000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>225697000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>222885000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>222681000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220729000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,43 +2349,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9324000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9552000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10115000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5274000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5642000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5041000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5433000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5434000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5717000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5140000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2290,34 +2423,37 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2079000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2121000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>968000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>961000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>959000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2325,8 +2461,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2360,43 +2499,49 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39499000</v>
+      </c>
+      <c r="E61" s="3">
         <v>65662000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37198000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23880000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20897000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22983000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21960000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20799000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21641000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20959000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2430,8 +2575,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>435559000</v>
+      </c>
+      <c r="E66" s="3">
         <v>440335000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>406694000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>204516000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>199169000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>196860000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>195575000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>192937000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>192901000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>191117000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,22 +2819,25 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>7143000</v>
+      </c>
+      <c r="E70" s="3">
         <v>4599000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5102000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>3053000</v>
       </c>
       <c r="H70" s="3">
         <v>3053000</v>
@@ -2690,8 +2857,11 @@
       <c r="M70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18373000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18076000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19806000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19440000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19050000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18518000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18118000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17673000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17197000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16712000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61634000</v>
+      </c>
+      <c r="E76" s="3">
         <v>61295000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61282000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29177000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28650000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27770000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27069000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26895000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26727000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26559000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E81" s="3">
         <v>986000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>702000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>735000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>842000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>749000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>754000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>789000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>775000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>745000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,43 +3222,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E83" s="3">
         <v>399000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>213000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>141000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>139000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>137000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>142000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>139000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>136000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>138000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,43 +3448,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4628000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-444000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1775000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>934000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-745000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1371000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1551000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1119000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>308000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,34 +3504,35 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-464000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-34000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3320,8 +3540,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,43 +3616,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7546000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17748000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6593000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-477000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>203000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,8 +3672,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3449,34 +3682,37 @@
         <v>-605000</v>
       </c>
       <c r="E96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="F96" s="3">
         <v>-345000</v>
       </c>
       <c r="G96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-309000</v>
       </c>
       <c r="I96" s="3">
         <v>-309000</v>
       </c>
       <c r="J96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-313000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-290000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-292000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,43 +3822,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2673000</v>
+      </c>
+      <c r="E100" s="3">
         <v>32170000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5135000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1125000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1677000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-281000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>589000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-483000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3650,39 +3898,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4849000</v>
+      </c>
+      <c r="E102" s="3">
         <v>17283000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16190000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>317000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-271000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>834000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,103 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3623000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3888000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4426000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2812000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2218000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2206000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2173000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2136000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2069000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1994000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1921000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +798,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,8 +839,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,8 +858,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,8 +897,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,8 +938,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,46 +979,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-178000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-165000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-71000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-32000</v>
       </c>
       <c r="I15" s="3">
         <v>-32000</v>
       </c>
       <c r="J15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-34000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-33000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-31000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-33000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1036,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E17" s="3">
         <v>440000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>776000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>756000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>635000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>688000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>632000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>577000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>517000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>472000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>438000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3362000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3448000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3650000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2056000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1583000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1518000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1541000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1559000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1552000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1522000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1483000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,84 +1135,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1966000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-537000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-399000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-566000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-549000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-503000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-498000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-506000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1569000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1686000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1092000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1187000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1258000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1112000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1152000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1188000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1160000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1115000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1217,84 +1256,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1149000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1287000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>879000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1046000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1119000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>975000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1010000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1049000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1024000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>977000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E24" s="3">
         <v>191000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>224000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>153000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>218000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>234000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>177000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>232000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>210000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>202000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>186000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1379,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1141000</v>
+      </c>
+      <c r="E26" s="3">
         <v>958000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1063000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>726000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>828000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>885000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>798000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>778000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>839000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>822000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>791000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E27" s="3">
         <v>902000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>986000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>702000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>735000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>842000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>749000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>727000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>789000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>775000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>745000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,8 +1502,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1456,11 +1516,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1468,23 +1528,26 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>27000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1584,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1625,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2299000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2363000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1177000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>537000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>399000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>566000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>549000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>503000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>498000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>506000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E33" s="3">
         <v>902000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>986000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>702000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>735000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>842000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>749000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>754000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>789000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>775000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>745000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1748,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E35" s="3">
         <v>902000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>986000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>702000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>735000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>842000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>749000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>754000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>789000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>775000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>745000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1854,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,84 +1871,91 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4194000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5116000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5312000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4084000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2027000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1831000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1873000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2753000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2123000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2046000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1869000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43098000</v>
+      </c>
+      <c r="E42" s="3">
         <v>45693000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>42150000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22131000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>980000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>855000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1004000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1128000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>884000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>876000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1045000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1900,8 +1992,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1938,8 +2033,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1976,8 +2074,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2014,8 +2115,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2052,84 +2156,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5515000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5726000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5772000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5535000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2863000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2871000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2154000</v>
       </c>
       <c r="L48" s="3">
         <v>2154000</v>
       </c>
       <c r="M48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="N48" s="3">
         <v>2078000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28700000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28975000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29245000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29926000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11429000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11512000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11580000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11684000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11800000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11407000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11415000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2279,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,20 +2320,23 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3996000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3946000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3915000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2233,8 +2352,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2242,8 +2361,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2402,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>499183000</v>
+      </c>
+      <c r="E54" s="3">
         <v>504336000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>506229000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>473078000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>236750000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>230872000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>227683000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>225697000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>222885000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>222681000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220729000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2462,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,46 +2479,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9284000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9324000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9552000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10115000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5274000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5642000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5041000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5433000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5434000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5717000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5140000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2426,37 +2559,40 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2061000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2079000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2121000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>968000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>961000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>959000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2464,8 +2600,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2502,46 +2641,52 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40127000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39499000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65662000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37198000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23880000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20897000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22983000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21960000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20799000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21641000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20959000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2578,8 +2723,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2764,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2805,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +2846,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>429316000</v>
+      </c>
+      <c r="E66" s="3">
         <v>435559000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>440335000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>406694000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>204516000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>199169000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>196860000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>195575000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>192937000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>192901000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>191117000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +2906,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2945,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,25 +2986,28 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="E70" s="3">
         <v>7143000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4599000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5102000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3053000</v>
       </c>
       <c r="I70" s="3">
         <v>3053000</v>
@@ -2860,8 +3027,11 @@
       <c r="N70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3068,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18834000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18373000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18076000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19806000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19440000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19050000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18518000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18118000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17673000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17197000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16712000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3150,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3191,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3232,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61819000</v>
+      </c>
+      <c r="E76" s="3">
         <v>61634000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61295000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61282000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29177000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28650000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27770000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27069000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26895000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26727000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26559000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3314,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E81" s="3">
         <v>902000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>986000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>702000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>735000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>842000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>749000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>754000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>789000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>775000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>745000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,46 +3420,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E83" s="3">
         <v>420000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>399000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>213000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>141000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>139000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>137000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>142000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>136000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>138000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3500,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3541,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3582,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3623,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,46 +3664,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4628000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-444000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1775000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>934000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-745000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1371000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1551000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1119000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>308000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,37 +3724,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-122000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-464000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-34000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3543,8 +3763,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +3804,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,46 +3845,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2118000</v>
+      </c>
+      <c r="E94" s="3">
         <v>7546000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="F94" s="3">
-        <v>17748000</v>
-      </c>
       <c r="G94" s="3">
-        <v>-6593000</v>
+        <v>17719000</v>
       </c>
       <c r="H94" s="3">
+        <v>-6564000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-477000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>203000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,46 +3905,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="E96" s="3">
         <v>-605000</v>
       </c>
       <c r="F96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="G96" s="3">
         <v>-345000</v>
       </c>
       <c r="H96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-309000</v>
       </c>
       <c r="J96" s="3">
         <v>-309000</v>
       </c>
       <c r="K96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-313000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-290000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-292000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +3985,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4026,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,46 +4067,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2396000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32170000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5135000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1125000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>207000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1677000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-281000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>589000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-483000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3901,42 +4149,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4089000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4849000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17283000</v>
       </c>
-      <c r="F102" s="3">
-        <v>16190000</v>
-      </c>
       <c r="G102" s="3">
-        <v>317000</v>
+        <v>16161000</v>
       </c>
       <c r="H102" s="3">
+        <v>346000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-271000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>834000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-58000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,109 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3611000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3623000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3888000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4426000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2812000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2218000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2206000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2173000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2136000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2069000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1994000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1921000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +807,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +851,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +871,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,8 +913,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,8 +957,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,49 +1001,55 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-170000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-178000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-165000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-71000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-32000</v>
       </c>
       <c r="J15" s="3">
         <v>-32000</v>
       </c>
       <c r="K15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="L15" s="3">
         <v>-34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-33000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-31000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-33000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1037,90 +1062,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E17" s="3">
         <v>261000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>440000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>776000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>756000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>635000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>688000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>632000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>577000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>517000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>472000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>438000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3362000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3448000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3650000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2056000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1583000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1518000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1541000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1559000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1552000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1522000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1483000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,90 +1168,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1725000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-537000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-399000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-566000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-549000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-503000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-498000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-506000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2042000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1784000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1569000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1686000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1092000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1187000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1258000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1152000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1188000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1160000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1115000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1259,90 +1298,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1396000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1149000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1287000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>879000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1046000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1119000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>975000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1010000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1049000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1024000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>977000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E24" s="3">
         <v>255000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>191000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>224000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>153000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>218000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>234000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>177000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>232000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>210000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>202000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>186000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,90 +1430,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1330000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1141000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>958000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1063000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>726000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>828000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>885000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>798000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>778000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>839000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>822000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>791000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1068000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>902000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>986000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>702000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>735000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>842000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>749000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>727000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>789000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>775000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>745000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1562,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1519,11 +1579,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1531,23 +1591,26 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>27000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1628,90 +1694,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1966000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2299000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2363000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1177000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>537000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>399000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>566000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>549000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>503000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>498000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>506000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1068000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>902000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>986000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>702000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>735000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>842000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>749000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>754000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>789000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>775000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>745000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1751,95 +1826,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1068000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>902000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>986000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>702000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>735000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>842000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>749000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>754000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>789000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>775000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>745000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1855,8 +1939,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,90 +1957,97 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5029000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4194000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5116000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5312000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4084000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2027000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1831000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1873000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2753000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2123000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2046000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1869000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23457000</v>
+      </c>
+      <c r="E42" s="3">
         <v>43098000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>45693000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>42150000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22131000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>980000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>855000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1004000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1128000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>884000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>876000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1045000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1995,8 +2087,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2036,8 +2131,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2077,8 +2175,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2118,8 +2219,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2159,90 +2263,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5203000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5515000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5726000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5772000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5535000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2863000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2871000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2154000</v>
       </c>
       <c r="M48" s="3">
         <v>2154000</v>
       </c>
       <c r="N48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="O48" s="3">
         <v>2078000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29454000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28700000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28975000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29245000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29926000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11429000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11512000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11580000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11684000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11800000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11407000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11415000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2395,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2323,23 +2439,26 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4358000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3996000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3946000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3915000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2355,8 +2474,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2364,8 +2483,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2405,49 +2527,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>509228000</v>
+      </c>
+      <c r="E54" s="3">
         <v>499183000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>504336000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>506229000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>473078000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>236750000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>230872000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>227683000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>225697000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>222885000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>222681000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220729000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2591,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2480,49 +2609,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9654000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9284000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9324000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9552000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10115000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5274000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5642000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5041000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5433000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5434000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5717000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5140000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2562,40 +2695,43 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1927000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2061000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2079000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2121000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>968000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>961000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>959000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2603,8 +2739,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2644,49 +2783,55 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38583000</v>
+      </c>
+      <c r="E61" s="3">
         <v>40127000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39499000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>65662000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37198000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23880000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20897000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22983000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21960000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20799000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21641000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20959000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2726,8 +2871,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2959,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,49 +3003,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>438421000</v>
+      </c>
+      <c r="E66" s="3">
         <v>429316000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>435559000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>440335000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>406694000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>204516000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>199169000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>196860000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195575000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>192937000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>192901000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>191117000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,8 +3067,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2948,8 +3109,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2989,8 +3153,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2998,19 +3165,19 @@
         <v>8048000</v>
       </c>
       <c r="E70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="F70" s="3">
         <v>7143000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4599000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5102000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3053000</v>
       </c>
       <c r="J70" s="3">
         <v>3053000</v>
@@ -3030,8 +3197,11 @@
       <c r="O70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,49 +3241,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19455000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18834000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18373000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18076000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19806000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19440000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19050000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18518000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18118000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17673000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17197000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16712000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3153,8 +3329,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3194,8 +3373,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3235,49 +3417,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62759000</v>
+      </c>
+      <c r="E76" s="3">
         <v>61819000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61634000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61295000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61282000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29177000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28650000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27770000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27069000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26895000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26727000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26559000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,95 +3505,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1068000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>902000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>986000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>702000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>735000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>842000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>749000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>754000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>789000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>775000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>745000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,49 +3618,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E83" s="3">
         <v>388000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>420000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>399000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>213000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>141000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>139000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>137000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>142000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>136000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>138000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3704,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,8 +3748,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3792,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +3836,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,49 +3880,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2408000</v>
+      </c>
+      <c r="E89" s="3">
         <v>425000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4628000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-444000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1775000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>934000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-745000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1371000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1551000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1119000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>308000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,40 +3944,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-130000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-122000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-464000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-34000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3766,8 +3986,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3807,8 +4030,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3848,49 +4074,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29565000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7546000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>17719000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-477000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>203000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3906,8 +4138,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3915,40 +4148,43 @@
         <v>-607000</v>
       </c>
       <c r="E96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="F96" s="3">
         <v>-605000</v>
       </c>
       <c r="G96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="H96" s="3">
         <v>-345000</v>
       </c>
       <c r="I96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-309000</v>
       </c>
       <c r="K96" s="3">
         <v>-309000</v>
       </c>
       <c r="L96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-313000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-290000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-292000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3988,8 +4224,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4029,8 +4268,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4070,49 +4312,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8917000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32170000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5135000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1125000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>207000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1677000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-281000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>589000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-483000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4152,45 +4400,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18240000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4849000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17283000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16161000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>346000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-271000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>834000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-58000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,115 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3494000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3611000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3623000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3888000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4426000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2812000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2218000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2206000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2173000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2136000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2069000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1994000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1921000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +863,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +884,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +929,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +976,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,52 +1023,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-172000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-170000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-178000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-165000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-71000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-32000</v>
       </c>
       <c r="K15" s="3">
         <v>-32000</v>
       </c>
       <c r="L15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="M15" s="3">
         <v>-34000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-33000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-31000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-33000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E17" s="3">
         <v>245000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>261000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>440000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>776000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>756000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>635000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>688000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>632000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>577000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>517000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>472000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>438000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3237000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3366000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3362000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3448000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3650000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2056000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1583000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1518000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1541000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1559000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1552000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1522000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1483000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1201,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1413000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-537000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-399000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-566000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-549000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-503000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-498000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-506000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2169000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2042000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1784000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1569000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1686000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1092000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1187000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1258000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1112000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1152000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1188000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1160000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1115000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1340,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1824000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1641000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1396000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1149000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1287000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>879000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1046000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1119000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>975000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1010000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1049000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1024000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>977000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E24" s="3">
         <v>311000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>255000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>191000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>224000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>153000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>218000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>234000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>177000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>232000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>210000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>202000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>186000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1330000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1141000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>958000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1063000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>726000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>828000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>885000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>798000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>778000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>839000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>822000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>791000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1228000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1068000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>902000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>986000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>702000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>735000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>842000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>749000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>727000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>789000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>775000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>745000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1622,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1582,11 +1642,11 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1594,23 +1654,26 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>27000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1725000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1966000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2299000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2363000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1177000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>537000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>399000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>566000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>549000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>503000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>498000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>506000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1228000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1068000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>902000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>986000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>702000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>735000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>842000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>749000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>754000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>789000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>775000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>745000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1228000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1068000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>902000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>986000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>702000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>735000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>842000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>749000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>754000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>789000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>775000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>745000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2043,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5097000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5029000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4194000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5116000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5312000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4084000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2027000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1831000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1873000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2753000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2123000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2046000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1869000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36528000</v>
+      </c>
+      <c r="E42" s="3">
         <v>23457000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>43098000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>45693000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>42150000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22131000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>980000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>855000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1004000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1128000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>884000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>876000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1045000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2182,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2229,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2276,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,8 +2323,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,96 +2370,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5064000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5203000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5515000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5726000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5772000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5535000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2863000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2871000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2154000</v>
       </c>
       <c r="N48" s="3">
         <v>2154000</v>
       </c>
       <c r="O48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="P48" s="3">
         <v>2078000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29546000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29454000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28700000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28975000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29245000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29926000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11429000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11512000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11580000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11684000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11800000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11407000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11415000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,26 +2558,29 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4810000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4358000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3996000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3946000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3915000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2477,8 +2596,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2486,8 +2605,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>517537000</v>
+      </c>
+      <c r="E54" s="3">
         <v>509228000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>499183000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>504336000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>506229000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>473078000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>236750000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>230872000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>227683000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>225697000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>222885000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>222681000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>220729000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,52 +2739,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8645000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9654000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9284000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9324000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9552000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10115000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5274000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5642000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5041000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5433000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5434000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5717000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5140000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,43 +2831,46 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1896000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1927000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2061000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2079000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2121000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>968000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>961000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>959000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2742,8 +2878,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,52 +2925,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36879000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38583000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40127000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39499000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>65662000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37198000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23880000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20897000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22983000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21960000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20799000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21641000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20959000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2874,8 +3019,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>449661000</v>
+      </c>
+      <c r="E66" s="3">
         <v>438421000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>429316000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>435559000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>440335000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>406694000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>204516000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>199169000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>196860000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195575000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>192937000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>192901000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>191117000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,31 +3320,34 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>8048000</v>
+        <v>7124000</v>
       </c>
       <c r="E70" s="3">
         <v>8048000</v>
       </c>
       <c r="F70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="G70" s="3">
         <v>7143000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4599000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>5102000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3053000</v>
       </c>
       <c r="K70" s="3">
         <v>3053000</v>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20184000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19455000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18834000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18373000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18076000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19806000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19440000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19050000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18518000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18118000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17673000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17197000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16712000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60752000</v>
+      </c>
+      <c r="E76" s="3">
         <v>62759000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61819000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61634000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61295000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61282000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29177000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28650000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27770000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27069000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26895000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26727000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26559000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1228000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1068000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>902000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>986000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>702000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>735000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>842000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>749000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>754000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>789000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>775000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>745000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +3816,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E83" s="3">
         <v>401000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>388000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>420000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>399000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>213000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>141000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>139000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>142000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>136000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>138000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2408000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>425000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4628000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-444000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1775000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>934000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-745000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1371000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1551000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1119000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>308000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,8 +4164,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3954,34 +4174,34 @@
         <v>-99000</v>
       </c>
       <c r="E91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-130000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-122000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-464000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-34000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3989,8 +4209,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3119000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7546000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>17719000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-477000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>203000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4371,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-607000</v>
+        <v>-605000</v>
       </c>
       <c r="E96" s="3">
         <v>-607000</v>
       </c>
       <c r="F96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="G96" s="3">
         <v>-605000</v>
       </c>
       <c r="H96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="I96" s="3">
         <v>-345000</v>
       </c>
       <c r="J96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-309000</v>
       </c>
       <c r="L96" s="3">
         <v>-309000</v>
       </c>
       <c r="M96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-313000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-290000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-292000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4557,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10178000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8917000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32170000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5135000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1125000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>207000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1677000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-281000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>589000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-483000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4651,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13264000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4849000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17283000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16161000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>346000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-271000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>834000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,121 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3443000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3494000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3611000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3623000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3888000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4426000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2812000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2218000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2206000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2173000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2136000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2069000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1994000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1921000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +875,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,8 +897,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,8 +945,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,8 +995,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,55 +1045,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-144000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-172000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-170000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-178000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-165000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-71000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-32000</v>
       </c>
       <c r="L15" s="3">
         <v>-32000</v>
       </c>
       <c r="M15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="N15" s="3">
         <v>-34000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-33000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-31000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="E17" s="3">
         <v>257000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>245000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>261000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>440000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>776000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>756000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>635000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>688000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>632000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>577000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>517000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>472000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>438000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3679000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3237000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3366000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3362000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3448000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3650000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2056000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1583000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1518000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1541000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1559000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1552000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1522000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,102 +1234,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1606000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-537000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-399000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-566000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-549000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-503000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-498000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-506000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2415000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2169000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2042000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1784000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1569000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1686000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1092000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1187000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1258000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1112000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1152000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1188000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1160000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1115000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1343,102 +1382,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2073000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1824000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1641000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1396000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1149000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1287000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>879000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1046000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1119000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>975000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1010000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1049000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1024000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>977000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E24" s="3">
         <v>351000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>311000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>255000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>191000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>224000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>153000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>218000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>234000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>177000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>232000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>210000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>202000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>186000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1473000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1330000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1141000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>958000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1063000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>726000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>828000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>885000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>798000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>778000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>839000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>822000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>791000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1334000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1228000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1068000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>902000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>986000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>702000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>735000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>842000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>749000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>727000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>789000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>775000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>745000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1682,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1645,11 +1705,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1657,23 +1717,26 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>27000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1413000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1725000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1966000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2299000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2363000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1177000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>537000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>399000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>566000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>549000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>503000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>498000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>506000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1334000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1228000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1068000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>902000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>986000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>702000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>735000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>842000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>749000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>754000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>789000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>775000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>745000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1334000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1228000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1068000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>902000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>986000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>702000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>735000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>842000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>749000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>754000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>789000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>775000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>745000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,102 +2129,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5077000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5097000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5029000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4194000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5116000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5312000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4084000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2027000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1831000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1873000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2753000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2123000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2046000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1869000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31946000</v>
+      </c>
+      <c r="E42" s="3">
         <v>36528000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23457000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43098000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45693000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42150000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22131000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>980000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>855000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1004000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1128000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>884000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>876000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2185,8 +2277,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2232,8 +2327,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2279,8 +2377,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2326,8 +2427,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2373,102 +2477,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4932000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5064000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5203000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5515000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5726000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5772000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5535000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2863000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2871000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2154000</v>
       </c>
       <c r="O48" s="3">
         <v>2154000</v>
       </c>
       <c r="P48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2078000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29270000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29546000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29454000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28700000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28975000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29245000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29926000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11429000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11512000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11580000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11684000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11800000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11407000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11415000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,29 +2677,32 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4837000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4810000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4358000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3996000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3946000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3915000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2599,8 +2718,8 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2608,8 +2727,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>521964000</v>
+      </c>
+      <c r="E54" s="3">
         <v>517537000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>509228000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>499183000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>504336000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>506229000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>473078000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>236750000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>230872000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>227683000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>225697000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>222885000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>222681000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>220729000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,55 +2869,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9986000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8645000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9654000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9284000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9324000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9552000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10115000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5274000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5642000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5041000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5433000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5434000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5717000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5140000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2834,46 +2967,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1812000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1896000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1927000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2061000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2079000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2121000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>968000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>961000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>959000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -2881,8 +3017,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2928,55 +3067,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36821000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36879000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38583000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40127000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39499000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>65662000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37198000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23880000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20897000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22983000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21960000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20799000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21641000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20959000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3022,8 +3167,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>453628000</v>
+      </c>
+      <c r="E66" s="3">
         <v>449661000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>438421000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>429316000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>435559000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>440335000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>406694000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>204516000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>199169000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>196860000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>195575000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>192937000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>192901000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>191117000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,34 +3487,37 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="E70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>8048000</v>
       </c>
       <c r="F70" s="3">
         <v>8048000</v>
       </c>
       <c r="G70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="H70" s="3">
         <v>7143000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>4599000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>5102000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>3053000</v>
       </c>
       <c r="L70" s="3">
         <v>3053000</v>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21139000</v>
+      </c>
+      <c r="E72" s="3">
         <v>20184000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19455000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18834000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18373000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18076000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19806000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19440000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19050000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18518000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18118000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17673000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17197000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16712000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61663000</v>
+      </c>
+      <c r="E76" s="3">
         <v>60752000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62759000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61819000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61634000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61295000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61282000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29177000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28650000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27770000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27069000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26895000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26727000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26559000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1334000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1228000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1068000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>902000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>986000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>702000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>735000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>842000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>749000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>754000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>789000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>775000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>745000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E83" s="3">
         <v>345000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>401000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>388000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>420000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>399000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>213000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>141000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>142000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>136000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>138000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3336000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2408000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>425000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4628000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-444000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1775000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>934000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-745000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1371000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1551000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1119000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>308000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,46 +4384,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99000</v>
+        <v>-76000</v>
       </c>
       <c r="E91" s="3">
         <v>-99000</v>
       </c>
       <c r="F91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-130000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-122000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-464000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-34000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4212,8 +4432,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10144000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3119000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7546000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>17719000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-477000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>203000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,55 +4604,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-602000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-607000</v>
       </c>
       <c r="F96" s="3">
         <v>-607000</v>
       </c>
       <c r="G96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="H96" s="3">
         <v>-605000</v>
       </c>
       <c r="I96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="J96" s="3">
         <v>-345000</v>
       </c>
       <c r="K96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-309000</v>
       </c>
       <c r="M96" s="3">
         <v>-309000</v>
       </c>
       <c r="N96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-313000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-290000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-292000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,55 +4802,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E100" s="3">
         <v>10178000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8917000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32170000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5135000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1125000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>207000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1677000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-281000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>589000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-483000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4654,51 +4902,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5575000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13264000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4849000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17283000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16161000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>346000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-271000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>834000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-58000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3426000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3443000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3494000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3611000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3623000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3888000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4426000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2812000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2218000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2206000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2173000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2136000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2069000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1994000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1921000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,58 +1067,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-142000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-144000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-172000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-170000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-178000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-165000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-71000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-32000</v>
       </c>
       <c r="M15" s="3">
         <v>-32000</v>
       </c>
       <c r="N15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="O15" s="3">
         <v>-34000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-33000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-33000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-236000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>257000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>245000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>261000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>440000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>776000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>756000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>635000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>688000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>632000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>577000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>517000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>472000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>438000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3557000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3679000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3237000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3366000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3362000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3448000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3650000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2056000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1583000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1518000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1541000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1559000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1552000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1483000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1430000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-537000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-399000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-566000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-549000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-503000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-498000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-506000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2415000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2169000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2042000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1784000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1569000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1686000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1092000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1187000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1258000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1112000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1152000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1188000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1160000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1115000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2073000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1824000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1641000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1396000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1149000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1287000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>879000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1046000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1119000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>975000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1010000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1049000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>977000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E24" s="3">
         <v>415000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>351000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>311000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>255000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>191000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>224000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>153000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>218000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>234000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>177000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>232000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>210000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>202000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>186000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1658000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1473000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1330000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1141000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>958000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1063000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>726000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>828000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>885000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>798000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>778000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>839000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>822000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>791000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1559000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1334000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1228000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1068000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>902000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>986000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>702000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>735000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>842000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>749000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>727000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>789000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>775000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>745000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1708,11 +1768,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1720,23 +1780,26 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>27000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1606000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1413000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1725000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1966000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2299000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2363000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1177000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>537000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>399000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>566000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>549000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>503000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>498000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>506000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1559000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1334000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1228000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1068000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>902000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>986000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>702000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>735000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>842000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>749000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>754000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>789000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>775000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>745000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1559000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1334000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1228000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1068000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>902000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>986000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>702000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>735000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>842000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>749000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>754000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>789000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>775000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>745000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,108 +2215,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4656000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5077000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5097000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5029000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4194000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5116000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5312000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4084000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2027000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1831000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1873000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2753000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2123000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2046000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1869000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27086000</v>
+      </c>
+      <c r="E42" s="3">
         <v>31946000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36528000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23457000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>43098000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45693000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>42150000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22131000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>980000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>855000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1004000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1128000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>884000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>876000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1045000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,8 +2531,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,108 +2584,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4926000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4932000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5064000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5203000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5515000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5726000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5772000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5535000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2863000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2871000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2154000</v>
       </c>
       <c r="P48" s="3">
         <v>2154000</v>
       </c>
       <c r="Q48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="R48" s="3">
         <v>2078000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30405000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29270000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29546000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29454000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28700000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28975000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29245000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29926000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11429000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11512000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11580000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11684000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11800000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11407000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11415000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,32 +2796,35 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4814000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4837000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4810000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4358000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3996000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3946000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3915000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2721,8 +2840,8 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2730,8 +2849,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>529884000</v>
+      </c>
+      <c r="E54" s="3">
         <v>521964000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>517537000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>509228000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>499183000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>504336000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>506229000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>473078000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>236750000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>230872000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>227683000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>225697000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>222885000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>222681000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>220729000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,58 +2999,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10370000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9986000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8645000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9654000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9284000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9324000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9552000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10115000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5274000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5642000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5041000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5433000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5434000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5717000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5140000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,49 +3103,52 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1742000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1812000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1896000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1927000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2061000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2079000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2121000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>968000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>961000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>959000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3020,8 +3156,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,58 +3209,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36970000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36821000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36879000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38583000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40127000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39499000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>65662000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37198000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23880000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20897000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22983000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21960000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20799000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21641000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20959000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3170,8 +3315,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>460984000</v>
+      </c>
+      <c r="E66" s="3">
         <v>453628000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>449661000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>438421000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>429316000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>435559000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>440335000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>406694000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>204516000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>199169000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>196860000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>195575000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>192937000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>192901000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>191117000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3499,28 +3666,28 @@
         <v>6673000</v>
       </c>
       <c r="E70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="F70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>8048000</v>
       </c>
       <c r="G70" s="3">
         <v>8048000</v>
       </c>
       <c r="H70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="I70" s="3">
         <v>7143000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4599000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>5102000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>3053000</v>
       </c>
       <c r="M70" s="3">
         <v>3053000</v>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22114000</v>
+      </c>
+      <c r="E72" s="3">
         <v>21139000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20184000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19455000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18834000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18373000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18076000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19806000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19440000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19050000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18518000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18118000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17673000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17197000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16712000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62227000</v>
+      </c>
+      <c r="E76" s="3">
         <v>61663000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60752000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62759000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61819000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61634000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61295000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61282000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29177000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28650000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27770000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27069000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26895000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26727000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26559000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1559000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1334000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1228000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1068000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>902000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>986000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>702000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>735000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>842000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>749000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>754000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>789000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>775000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>745000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E83" s="3">
         <v>342000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>345000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>401000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>388000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>420000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>399000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>213000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>141000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>137000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>142000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>136000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>138000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3336000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2408000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>425000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4628000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-444000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1775000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>934000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-745000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1371000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1551000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>308000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,49 +4604,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-99000</v>
       </c>
       <c r="F91" s="3">
         <v>-99000</v>
       </c>
       <c r="G91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-130000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-122000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-464000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-34000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4435,8 +4655,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12897000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3119000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7546000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>17719000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-477000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>203000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-640000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-602000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-607000</v>
       </c>
       <c r="G96" s="3">
         <v>-607000</v>
       </c>
       <c r="H96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="I96" s="3">
         <v>-605000</v>
       </c>
       <c r="J96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="K96" s="3">
         <v>-345000</v>
       </c>
       <c r="L96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-309000</v>
       </c>
       <c r="N96" s="3">
         <v>-309000</v>
       </c>
       <c r="O96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-313000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-290000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-292000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6385000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1233000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10178000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8917000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32170000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5135000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1125000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>207000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1677000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-281000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>589000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-483000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6730000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13264000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4849000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17283000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16161000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>346000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-271000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>834000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3411000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3426000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3443000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3494000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3611000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3623000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3888000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4426000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2812000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2218000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2206000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2173000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2136000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2069000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1994000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1921000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,61 +1089,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-145000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-142000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-144000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-172000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-170000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-178000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-165000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-71000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-32000</v>
       </c>
       <c r="N15" s="3">
         <v>-32000</v>
       </c>
       <c r="O15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="P15" s="3">
         <v>-34000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-31000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-33000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-131000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-236000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>257000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>245000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>261000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>440000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>776000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>756000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>635000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>688000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>632000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>577000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>517000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>472000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>438000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3346000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3557000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3679000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3237000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3366000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3362000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3448000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3650000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2056000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1583000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1518000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1541000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1559000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1552000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1522000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1483000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1300,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1377000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-537000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-399000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-566000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-549000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-503000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-498000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-506000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2481000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2415000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2169000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2042000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1784000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1569000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1686000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1092000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1187000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1258000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1112000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1152000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1188000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1160000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1115000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1969000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2127000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2073000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1824000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1641000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1396000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1149000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1287000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>879000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1046000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1119000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>975000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1010000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1049000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1024000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>977000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E24" s="3">
         <v>423000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>415000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>351000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>311000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>255000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>191000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>224000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>153000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>218000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>234000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>177000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>232000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>210000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>202000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>186000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1704000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1658000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1473000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1330000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1141000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>958000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1063000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>726000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>828000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>885000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>798000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>778000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>839000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>822000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>791000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1616000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1559000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1334000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1228000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1068000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>902000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>986000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>702000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>735000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>842000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>749000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>727000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>789000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>775000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>745000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,11 +1831,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1783,23 +1843,26 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>27000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1377000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1430000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1606000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1413000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1725000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1966000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2299000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2363000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1177000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>537000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>399000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>566000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>549000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>503000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>498000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>506000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1616000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1559000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1334000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1228000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1068000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>902000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>986000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>702000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>735000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>842000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>749000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>754000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>789000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>775000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>745000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1616000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1559000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1334000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1228000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1068000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>902000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>986000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>702000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>735000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>842000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>749000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>754000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>789000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>775000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>745000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2301,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5085000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4656000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5077000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5097000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5029000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4194000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5116000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5312000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4084000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2027000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1831000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1873000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2753000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2123000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2046000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1869000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23661000</v>
+      </c>
+      <c r="E42" s="3">
         <v>27086000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31946000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>36528000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>23457000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>43098000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>45693000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>42150000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22131000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>980000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>855000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1004000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1128000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>884000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>876000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1045000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2467,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,8 +2635,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2587,114 +2691,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4926000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4932000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5064000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5203000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5515000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5726000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5772000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5535000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2863000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2871000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2900000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2154000</v>
       </c>
       <c r="Q48" s="3">
         <v>2154000</v>
       </c>
       <c r="R48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="S48" s="3">
         <v>2078000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32139000</v>
+      </c>
+      <c r="E49" s="3">
         <v>30405000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29270000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29546000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29454000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28700000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28975000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29245000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29926000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11429000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11512000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11580000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11684000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11800000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11407000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11415000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,35 +2915,38 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>4814000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4837000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4810000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4358000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3996000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3946000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3915000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2843,8 +2962,8 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2852,8 +2971,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>541241000</v>
+      </c>
+      <c r="E54" s="3">
         <v>529884000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>521964000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>517537000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>509228000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>499183000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>504336000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>506229000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>473078000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>236750000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>230872000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>227683000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>225697000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>222885000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>222681000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>220729000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,61 +3129,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12677000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10370000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9986000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8645000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9654000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9284000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9324000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9552000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10115000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5274000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5642000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5041000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5433000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5434000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5717000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5140000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,52 +3239,55 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1694000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1742000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1812000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1896000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1927000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2061000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2079000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2121000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>968000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>961000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>959000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3159,8 +3295,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,61 +3351,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35050000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36970000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36821000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36879000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38583000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>40127000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39499000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>65662000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37198000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23880000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20897000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22983000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21960000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20799000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21641000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20959000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3318,8 +3463,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>471970000</v>
+      </c>
+      <c r="E66" s="3">
         <v>460984000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>453628000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>449661000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>438421000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>429316000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>435559000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>440335000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>406694000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>204516000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>199169000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>196860000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>195575000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>192937000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>192901000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>191117000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3669,28 +3836,28 @@
         <v>6673000</v>
       </c>
       <c r="F70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="G70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>8048000</v>
       </c>
       <c r="H70" s="3">
         <v>8048000</v>
       </c>
       <c r="I70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="J70" s="3">
         <v>7143000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4599000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>5102000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>3053000</v>
       </c>
       <c r="N70" s="3">
         <v>3053000</v>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22998000</v>
+      </c>
+      <c r="E72" s="3">
         <v>22114000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21139000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20184000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19455000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18834000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18373000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18076000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19806000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19440000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19050000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18518000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18118000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17673000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17197000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16712000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62598000</v>
+      </c>
+      <c r="E76" s="3">
         <v>62227000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61663000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60752000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62759000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61819000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61634000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61295000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61282000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29177000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28650000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27770000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27069000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26895000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26727000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26559000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1616000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1559000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1334000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1228000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1068000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>902000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>986000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>702000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>735000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>842000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>749000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>754000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>789000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>775000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>745000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E83" s="3">
         <v>354000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>342000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>345000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>401000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>388000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>420000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>399000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>213000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>141000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>142000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>136000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>138000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4807000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-218000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3336000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2408000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>425000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4628000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-444000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1775000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>934000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-745000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1371000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1119000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>308000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,52 +4824,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-99000</v>
       </c>
       <c r="G91" s="3">
         <v>-99000</v>
       </c>
       <c r="H91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-130000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-122000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-464000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-34000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4658,8 +4878,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12134000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3119000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7546000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>17719000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-477000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>203000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-638000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-640000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-602000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-607000</v>
       </c>
       <c r="H96" s="3">
         <v>-607000</v>
       </c>
       <c r="I96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="J96" s="3">
         <v>-605000</v>
       </c>
       <c r="K96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="L96" s="3">
         <v>-345000</v>
       </c>
       <c r="M96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-309000</v>
       </c>
       <c r="O96" s="3">
         <v>-309000</v>
       </c>
       <c r="P96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-313000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-290000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-292000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5292,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7795000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6385000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1233000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10178000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8917000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32170000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5135000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1125000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>207000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1677000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-281000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>589000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-483000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,57 +5404,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13264000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4849000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17283000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16161000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>346000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-271000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>834000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-58000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3411000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3426000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3443000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3494000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3611000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3623000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3888000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4426000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2812000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2218000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2206000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2173000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2136000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2069000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1994000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1921000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,64 +1111,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-143000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-145000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-142000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-144000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-172000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-170000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-178000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-165000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-71000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-32000</v>
       </c>
       <c r="O15" s="3">
         <v>-32000</v>
       </c>
       <c r="P15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-33000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-31000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-33000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E17" s="3">
         <v>65000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-131000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-236000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>257000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>245000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>261000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>440000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>776000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>756000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>635000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>688000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>632000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>577000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>517000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>472000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>438000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3278000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3346000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3557000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3679000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3237000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3366000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3362000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3448000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3650000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2056000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1583000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1518000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1541000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1559000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1552000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1522000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1483000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1532000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1377000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-537000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-399000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-566000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-549000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-503000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-498000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-506000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2078000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2312000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2481000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2415000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2169000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2042000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1784000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1569000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1686000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1092000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1187000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1258000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1112000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1188000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1160000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1115000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1746000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1969000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2127000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2073000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1824000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1641000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1396000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1149000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1287000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>879000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1046000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1119000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>975000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1010000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1049000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1024000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>977000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E24" s="3">
         <v>367000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>423000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>415000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>351000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>311000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>255000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>191000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>224000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>153000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>218000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>234000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>177000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>232000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>210000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>202000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>186000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1602000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1704000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1658000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1473000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1330000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1141000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>958000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1063000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>726000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>828000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>885000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>798000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>778000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>839000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>822000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>791000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1524000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1616000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1559000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1334000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1228000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1068000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>902000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>986000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>702000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>735000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>842000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>749000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>727000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>789000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>775000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>745000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,40 +1862,43 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1846,23 +1906,26 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>27000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1377000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1430000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1606000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1413000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1725000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1966000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2299000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2363000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1177000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>537000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>399000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>566000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>549000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>503000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>498000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>506000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1524000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1616000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1559000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1334000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1228000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1068000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>902000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>986000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>702000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>735000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>842000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>749000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>754000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>789000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>775000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>745000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1524000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1616000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1559000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1334000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1228000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1068000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>902000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>986000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>702000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>735000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>842000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>749000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>754000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>789000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>775000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>745000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,120 +2387,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5516000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5085000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4656000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5077000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5097000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5029000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4194000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5116000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5312000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4084000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2027000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1831000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1873000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2753000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2123000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2046000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1869000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33961000</v>
+      </c>
+      <c r="E42" s="3">
         <v>23661000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>27086000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31946000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36528000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>23457000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>43098000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45693000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42150000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22131000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>980000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>855000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1004000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1128000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>884000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>876000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1045000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,8 +2562,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,8 +2739,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2694,120 +2798,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4788000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3700000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4926000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4932000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5064000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5203000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5515000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5726000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5772000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5535000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2863000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2871000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2154000</v>
       </c>
       <c r="R48" s="3">
         <v>2154000</v>
       </c>
       <c r="S48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="T48" s="3">
         <v>2078000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32990000</v>
+      </c>
+      <c r="E49" s="3">
         <v>32139000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30405000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29270000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29546000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29454000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28700000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28975000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29245000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29926000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11429000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11512000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11580000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11684000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11800000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11407000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11415000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,38 +3034,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>6348000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>4814000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4837000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4810000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4358000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3996000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3946000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3915000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2965,8 +3084,8 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2974,8 +3093,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>543979000</v>
+      </c>
+      <c r="E54" s="3">
         <v>541241000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>529884000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>521964000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>517537000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>509228000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>499183000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>504336000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>506229000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>473078000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>236750000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>230872000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>227683000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>225697000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>222885000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>222681000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>220729000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,64 +3259,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10158000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12677000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10370000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9986000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8645000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9654000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9284000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9324000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9552000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10115000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5274000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5642000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5041000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5433000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5434000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5717000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5140000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,55 +3375,58 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1694000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1742000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1812000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1896000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1927000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2061000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2079000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2121000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>968000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>961000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>959000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3298,8 +3434,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,64 +3493,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32913000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35050000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36970000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36821000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36879000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38583000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40127000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39499000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>65662000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37198000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23880000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20897000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22983000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21960000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20799000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21641000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20959000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3466,8 +3611,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>478958000</v>
+      </c>
+      <c r="E66" s="3">
         <v>471970000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>460984000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>453628000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>449661000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>438421000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>429316000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>435559000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>440335000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>406694000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>204516000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>199169000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>196860000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>195575000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>192937000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>192901000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>191117000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3839,28 +4006,28 @@
         <v>6673000</v>
       </c>
       <c r="G70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="H70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>8048000</v>
       </c>
       <c r="I70" s="3">
         <v>8048000</v>
       </c>
       <c r="J70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="K70" s="3">
         <v>7143000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4599000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>5102000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>3053000</v>
       </c>
       <c r="O70" s="3">
         <v>3053000</v>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23687000</v>
+      </c>
+      <c r="E72" s="3">
         <v>22998000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22114000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21139000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20184000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19455000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18834000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18373000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18076000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19806000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19440000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19050000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18518000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18118000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17673000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17197000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16712000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58348000</v>
+      </c>
+      <c r="E76" s="3">
         <v>62598000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62227000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61663000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60752000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62759000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61819000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61634000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61295000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61282000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29177000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28650000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27770000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27069000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26895000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26727000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26559000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1524000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1616000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1559000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1334000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1228000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1068000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>902000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>986000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>702000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>735000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>842000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>749000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>754000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>789000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>775000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>745000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E83" s="3">
         <v>343000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>354000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>342000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>345000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>401000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>388000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>420000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>399000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>213000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>141000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>137000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>142000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>136000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>138000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4807000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-218000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3336000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2408000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>425000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4628000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-444000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1775000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>934000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-745000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1371000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1551000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1119000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>308000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,55 +5044,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
         <v>-128000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-139000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-99000</v>
       </c>
       <c r="H91" s="3">
         <v>-99000</v>
       </c>
       <c r="I91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-130000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-122000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-464000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-34000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4881,8 +5101,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12134000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3119000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7546000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>17719000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-477000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>203000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-637000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-638000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-640000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-602000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-607000</v>
       </c>
       <c r="I96" s="3">
         <v>-607000</v>
       </c>
       <c r="J96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="K96" s="3">
         <v>-605000</v>
       </c>
       <c r="L96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="M96" s="3">
         <v>-345000</v>
       </c>
       <c r="N96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-309000</v>
       </c>
       <c r="P96" s="3">
         <v>-309000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-313000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-290000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-292000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,64 +5537,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9049000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7795000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6385000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1233000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10178000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8917000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32170000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5135000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1125000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>207000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1677000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-281000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>589000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-483000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5407,60 +5655,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8827000</v>
+      </c>
+      <c r="E102" s="3">
         <v>468000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13264000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4849000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17283000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16161000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>346000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-271000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>834000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-58000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3673000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3357000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3411000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3426000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3443000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3494000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3611000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3623000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3888000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4426000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2812000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2218000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2206000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2173000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2136000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2069000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1994000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1921000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,67 +1133,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-137000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-143000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-145000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-142000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-144000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-172000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-170000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-178000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-165000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-71000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-32000</v>
       </c>
       <c r="P15" s="3">
         <v>-32000</v>
       </c>
       <c r="Q15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="R15" s="3">
         <v>-34000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-33000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-31000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-33000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E17" s="3">
         <v>79000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-131000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-236000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>257000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>245000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>261000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>440000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>776000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>756000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>635000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>688000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>632000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>577000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>517000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>472000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>438000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3236000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3278000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3346000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3557000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3679000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3237000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3366000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3362000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3448000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3650000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2056000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1583000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1518000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1541000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1559000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1552000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1522000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1483000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1532000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1377000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-537000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-399000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-566000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-549000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-503000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-498000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-506000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2249000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2078000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2312000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2481000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2415000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2169000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2042000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1784000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1569000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1686000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1092000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1187000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1258000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1112000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1152000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1188000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1160000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1115000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1904000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1746000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1969000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2127000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2073000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1824000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1641000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1396000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1149000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1287000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>879000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1046000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1119000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>975000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1010000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1049000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1024000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>977000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E24" s="3">
         <v>330000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>367000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>423000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>415000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>351000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>311000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>255000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>191000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>224000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>153000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>218000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>234000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>177000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>232000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>210000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>202000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>186000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1416000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1602000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1704000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1658000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1473000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1330000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1141000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>958000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1063000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>726000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>828000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>885000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>798000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>778000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>839000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>822000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>791000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1327000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1524000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1616000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1559000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1334000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1228000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1068000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>902000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>986000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>702000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>735000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>842000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>749000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>727000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>789000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>775000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>745000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1891,17 +1951,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1909,23 +1969,26 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>27000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1532000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1377000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1430000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1606000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1413000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1725000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1966000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2299000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2363000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1177000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>537000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>399000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>566000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>549000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>503000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>498000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>506000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1327000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1524000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1616000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1559000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1334000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1228000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1068000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>902000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>986000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>702000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>735000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>842000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>749000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>754000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>789000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>775000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>745000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1327000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1524000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1616000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1559000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1334000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1228000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1068000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>902000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>986000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>702000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>735000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>842000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>749000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>754000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>789000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>775000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>745000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5511000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5516000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5085000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4656000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5077000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5097000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5029000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4194000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5116000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5312000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4084000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2027000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1831000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1873000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2753000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2123000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2046000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1869000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26868000</v>
+      </c>
+      <c r="E42" s="3">
         <v>33961000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23661000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27086000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>31946000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>36528000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>23457000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>43098000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45693000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42150000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22131000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>980000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>855000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1004000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1128000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>884000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>876000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1045000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,8 +2843,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2801,126 +2905,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4777000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4788000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3700000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4926000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4932000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5064000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5203000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5515000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5726000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5772000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5535000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2863000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2871000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2154000</v>
       </c>
       <c r="S48" s="3">
         <v>2154000</v>
       </c>
       <c r="T48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="U48" s="3">
         <v>2078000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33300000</v>
+      </c>
+      <c r="E49" s="3">
         <v>32990000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32139000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30405000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29270000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29546000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29454000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28700000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28975000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29245000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29926000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11429000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11512000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11580000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11684000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11800000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11407000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11415000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,41 +3153,44 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6406000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6348000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>4814000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4837000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4810000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4358000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3996000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3946000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3915000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3087,8 +3206,8 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3096,8 +3215,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>545123000</v>
+      </c>
+      <c r="E54" s="3">
         <v>543979000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>541241000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>529884000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>521964000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>517537000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>509228000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>499183000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>504336000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>506229000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>473078000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>236750000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>230872000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>227683000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>225697000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>222885000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>222681000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>220729000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,67 +3389,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11839000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10158000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12677000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10370000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9986000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8645000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9654000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9284000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9324000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9552000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10115000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5274000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5642000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5041000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5433000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5434000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5717000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5140000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,58 +3511,61 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1471000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1529000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1694000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1742000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1812000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1896000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1927000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2061000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2079000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2121000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>968000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>961000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>959000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3437,8 +3573,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,67 +3635,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30316000</v>
+      </c>
+      <c r="E61" s="3">
         <v>32913000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35050000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36970000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36821000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36879000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38583000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40127000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39499000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>65662000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37198000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23880000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20897000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22983000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21960000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20799000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21641000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20959000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3614,8 +3759,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>482148000</v>
+      </c>
+      <c r="E66" s="3">
         <v>478958000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>471970000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>460984000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>453628000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>449661000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>438421000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>429316000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>435559000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>440335000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>406694000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>204516000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>199169000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>196860000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>195575000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>192937000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>192901000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>191117000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4009,28 +4176,28 @@
         <v>6673000</v>
       </c>
       <c r="H70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="I70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>8048000</v>
       </c>
       <c r="J70" s="3">
         <v>8048000</v>
       </c>
       <c r="K70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="L70" s="3">
         <v>7143000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>4599000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>5102000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="O70" s="3">
-        <v>3053000</v>
       </c>
       <c r="P70" s="3">
         <v>3053000</v>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24500000</v>
+      </c>
+      <c r="E72" s="3">
         <v>23687000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22998000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22114000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21139000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20184000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19455000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18834000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18373000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18076000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19806000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19440000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19050000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18518000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18118000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17673000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17197000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16712000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56302000</v>
+      </c>
+      <c r="E76" s="3">
         <v>58348000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62598000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62227000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61663000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60752000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62759000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61819000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61634000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61295000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61282000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29177000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28650000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27770000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27069000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26895000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26727000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26559000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1327000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1524000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1616000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1559000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1334000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1228000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1068000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>902000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>986000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>702000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>735000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>842000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>749000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>754000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>789000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>775000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>745000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E83" s="3">
         <v>332000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>343000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>354000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>342000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>345000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>401000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>388000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>420000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>399000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>213000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>141000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>137000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>142000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>139000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>136000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>138000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3965000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-188000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4807000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-218000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3336000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2408000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>425000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4628000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-444000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1775000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>934000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-745000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1371000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1551000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1119000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>308000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,58 +5264,59 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
         <v>-128000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-139000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-99000</v>
       </c>
       <c r="I91" s="3">
         <v>-99000</v>
       </c>
       <c r="J91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-130000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-464000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5104,8 +5324,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10771000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12134000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3119000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7546000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>17719000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-477000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>203000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-639000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-637000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-638000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-640000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-602000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-607000</v>
       </c>
       <c r="J96" s="3">
         <v>-607000</v>
       </c>
       <c r="K96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="L96" s="3">
         <v>-605000</v>
       </c>
       <c r="M96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="N96" s="3">
         <v>-345000</v>
       </c>
       <c r="O96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-309000</v>
       </c>
       <c r="Q96" s="3">
         <v>-309000</v>
       </c>
       <c r="R96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-313000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-290000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-292000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E100" s="3">
         <v>9049000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7795000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6385000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1233000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10178000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8917000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32170000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5135000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1125000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>207000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1677000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-281000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>589000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-483000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6009000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8827000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>468000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13264000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4849000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17283000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16161000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>346000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-271000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>834000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-58000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>28000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4369000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3673000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3357000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3411000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3426000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3443000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3494000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3611000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3623000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3888000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4426000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2812000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2218000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2206000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2173000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2136000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2069000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1994000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1921000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,70 +1155,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-143000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-137000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-143000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-145000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-142000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-144000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-172000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-170000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-178000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-165000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-71000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-32000</v>
       </c>
       <c r="Q15" s="3">
         <v>-32000</v>
       </c>
       <c r="R15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="S15" s="3">
         <v>-34000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-33000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-31000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-33000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E17" s="3">
         <v>437000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>65000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-131000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-236000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>257000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>245000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>261000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>440000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>776000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>756000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>635000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>688000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>632000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>577000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>517000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>472000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>438000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3511000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3236000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3278000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3346000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3557000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3679000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3237000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3366000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3362000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3448000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3650000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2056000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1583000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1518000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1541000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1559000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1552000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1522000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1483000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1399,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1511000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1332000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1532000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1377000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-537000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-399000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-566000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-549000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-503000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-498000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-506000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2324000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2249000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2078000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2312000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2481000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2415000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2169000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2042000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1784000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1569000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1686000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1092000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1187000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1258000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1112000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1152000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1188000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1160000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1115000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1904000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1746000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1969000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2127000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2073000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1824000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1641000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1396000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1149000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1287000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>879000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1046000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>975000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1010000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1049000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1024000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>977000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E24" s="3">
         <v>372000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>330000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>367000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>423000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>415000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>351000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>311000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>255000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>191000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>224000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>153000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>218000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>234000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>177000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>232000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>210000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>202000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>186000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1637000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1532000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1416000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1602000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1704000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1658000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1473000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1330000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1141000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>958000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1063000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>726000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>828000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>885000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>798000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>778000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>839000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>822000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>791000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1454000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1327000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1524000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1616000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1559000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1334000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1228000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1068000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>902000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>986000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>702000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>735000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>842000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>749000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>727000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>789000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>775000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>745000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1954,17 +2014,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1972,23 +2032,26 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>27000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1332000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1532000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1377000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1430000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1606000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1413000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1725000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1966000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2299000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2363000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1177000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>537000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>399000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>566000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>549000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>503000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>498000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>506000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1454000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1327000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1524000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1616000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1559000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1334000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1228000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1068000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>902000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>986000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>702000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>735000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>842000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>749000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>754000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>789000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>775000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>745000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1454000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1327000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1524000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1616000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1559000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1334000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1228000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1068000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>902000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>986000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>702000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>735000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>842000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>749000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>754000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>789000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>775000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>745000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2559,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5031000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5511000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5516000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5085000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4656000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5077000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5097000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5029000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4194000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5116000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5312000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4084000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2027000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1831000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1873000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2753000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2123000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2046000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1869000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26766000</v>
+      </c>
+      <c r="E42" s="3">
         <v>26868000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33961000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23661000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>27086000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>31946000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>36528000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23457000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>43098000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45693000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42150000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22131000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>980000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>855000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1004000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1128000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>884000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>876000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1045000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2752,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,8 +2947,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2908,132 +3012,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4701000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4777000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4788000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3700000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4926000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4932000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5064000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5203000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5515000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5726000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5772000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5535000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2863000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2871000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2154000</v>
       </c>
       <c r="T48" s="3">
         <v>2154000</v>
       </c>
       <c r="U48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="V48" s="3">
         <v>2078000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34333000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33300000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32990000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32139000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30405000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29270000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29546000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29454000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28700000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28975000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29245000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29926000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11429000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11512000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11580000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11684000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11800000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11407000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11415000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,44 +3272,47 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6464000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6406000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6348000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>4814000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4837000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4810000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4358000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3996000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3946000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3915000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3209,8 +3328,8 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3218,8 +3337,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>548438000</v>
+      </c>
+      <c r="E54" s="3">
         <v>545123000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>543979000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>541241000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>529884000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>521964000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>517537000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>509228000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>499183000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>504336000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>506229000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>473078000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>236750000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>230872000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>227683000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>225697000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>222885000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>222681000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>220729000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,70 +3519,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13299000</v>
+      </c>
+      <c r="E57" s="3">
         <v>11839000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10158000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12677000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10370000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9986000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8645000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9654000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9284000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9324000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9552000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10115000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5274000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5642000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5041000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5433000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5434000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5717000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5140000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,61 +3647,64 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1477000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1471000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1529000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1694000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1742000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1812000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1896000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1927000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2061000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2079000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2121000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>968000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>961000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>959000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3576,8 +3712,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,70 +3777,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31170000</v>
+      </c>
+      <c r="E61" s="3">
         <v>30316000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>32913000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35050000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36970000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36821000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36879000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38583000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40127000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39499000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>65662000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37198000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23880000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20897000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22983000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21960000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20799000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21641000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20959000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3762,8 +3907,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>487650000</v>
+      </c>
+      <c r="E66" s="3">
         <v>482148000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>478958000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>471970000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>460984000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>453628000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>449661000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>438421000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>429316000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>435559000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>440335000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>406694000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>204516000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>199169000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>196860000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>195575000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>192937000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>192901000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>191117000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4179,28 +4346,28 @@
         <v>6673000</v>
       </c>
       <c r="I70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="J70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>8048000</v>
       </c>
       <c r="K70" s="3">
         <v>8048000</v>
       </c>
       <c r="L70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="M70" s="3">
         <v>7143000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>4599000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>5102000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>3053000</v>
       </c>
       <c r="Q70" s="3">
         <v>3053000</v>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25344000</v>
+      </c>
+      <c r="E72" s="3">
         <v>24500000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23687000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22998000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22114000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21139000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20184000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19455000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18834000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18373000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18076000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19806000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19440000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19050000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18518000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18118000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17673000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17197000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16712000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54115000</v>
+      </c>
+      <c r="E76" s="3">
         <v>56302000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58348000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62598000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62227000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61663000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60752000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>62759000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61819000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61634000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61295000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61282000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29177000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28650000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27770000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27069000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26895000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26727000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26559000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1454000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1327000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1524000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1616000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1559000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1334000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1228000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1068000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>902000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>986000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>702000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>735000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>842000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>749000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>754000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>789000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>775000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>745000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E83" s="3">
         <v>345000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>332000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>343000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>354000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>342000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>345000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>401000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>388000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>420000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>399000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>213000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>141000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>137000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>142000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>139000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>136000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>138000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3770000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3965000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-188000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4807000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-218000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3336000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2408000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>425000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4628000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-444000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1775000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>934000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-745000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1371000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1551000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1119000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>308000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,8 +5484,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5276,50 +5496,50 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-128000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-139000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-99000</v>
       </c>
       <c r="J91" s="3">
         <v>-99000</v>
       </c>
       <c r="K91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-130000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-122000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-464000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-34000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5327,8 +5547,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8404000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10771000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12134000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3119000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7546000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>17719000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-477000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>203000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-691000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-639000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-637000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-638000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-640000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-602000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-607000</v>
       </c>
       <c r="K96" s="3">
         <v>-607000</v>
       </c>
       <c r="L96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="M96" s="3">
         <v>-605000</v>
       </c>
       <c r="N96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="O96" s="3">
         <v>-345000</v>
       </c>
       <c r="P96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-309000</v>
       </c>
       <c r="R96" s="3">
         <v>-309000</v>
       </c>
       <c r="S96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-313000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-290000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-292000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6027,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3746000</v>
+      </c>
+      <c r="E100" s="3">
         <v>797000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9049000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7795000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6385000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1233000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10178000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8917000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32170000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5135000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>207000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1677000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-281000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>589000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-483000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-888000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6009000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8827000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>468000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13264000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4849000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17283000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16161000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>346000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-271000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>834000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-58000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>28000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5238000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4369000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3673000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3357000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3411000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3426000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3443000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3494000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3611000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3623000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3888000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4426000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2812000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2218000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2206000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2173000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2136000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2069000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1994000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1921000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,73 +1177,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-140000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-143000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-137000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-143000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-145000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-142000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-144000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-172000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-170000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-178000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-165000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-71000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-32000</v>
       </c>
       <c r="R15" s="3">
         <v>-32000</v>
       </c>
       <c r="S15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="T15" s="3">
         <v>-34000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-33000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-31000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-33000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1724000</v>
+      </c>
+      <c r="E17" s="3">
         <v>858000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>437000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-131000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-236000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>257000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>245000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>261000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>440000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>776000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>756000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>635000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>688000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>632000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>577000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>517000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>472000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>438000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3514000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3511000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3236000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3278000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3346000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3557000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3679000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3237000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3366000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3362000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3448000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3650000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2056000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1583000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1518000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1541000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1559000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1552000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1522000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1483000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,138 +1432,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1495000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1511000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1332000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1532000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1377000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-537000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-399000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-566000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-549000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-503000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-498000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-506000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2384000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2324000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2249000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2078000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2312000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2481000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2415000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2169000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2042000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1784000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1569000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1686000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1092000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1187000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1258000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1112000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1152000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1188000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1160000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1115000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2019000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1904000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1746000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1969000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2127000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2073000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1824000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1641000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1396000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1149000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1287000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>879000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1119000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>975000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1010000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1049000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1024000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>977000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E24" s="3">
         <v>363000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>372000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>330000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>367000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>423000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>415000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>351000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>311000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>255000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>191000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>224000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>153000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>218000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>234000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>177000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>232000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>210000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>202000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>186000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1637000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1532000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1416000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1602000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1704000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1658000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1473000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1330000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1141000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>958000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1063000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>726000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>828000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>885000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>798000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>778000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>839000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>822000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>791000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1536000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1454000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1327000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1524000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1616000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1559000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1334000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1228000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1068000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>902000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>986000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>702000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>735000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>842000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>749000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>727000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>789000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>775000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>745000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2017,17 +2077,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2035,23 +2095,26 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>27000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1511000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1332000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1532000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1377000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1430000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1606000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1413000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1725000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1966000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2299000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2363000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1177000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>537000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>399000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>566000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>549000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>503000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>498000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>506000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1536000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1454000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1327000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1524000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1616000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1559000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1334000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1228000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1068000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>902000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>986000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>702000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>735000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>842000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>749000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>754000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>789000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>775000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>745000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1536000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1454000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1327000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1524000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1616000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1559000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1334000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1228000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1068000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>902000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>986000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>702000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>735000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>842000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>749000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>754000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>789000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>775000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>745000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,138 +2645,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5379000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5031000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5511000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5516000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5085000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4656000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5077000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5097000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5029000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4194000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5116000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5312000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4084000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2027000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1831000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1873000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2753000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2123000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2046000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1869000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24812000</v>
+      </c>
+      <c r="E42" s="3">
         <v>26766000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26868000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33961000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>23661000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>27086000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31946000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>36528000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23457000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>43098000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45693000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42150000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22131000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>980000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>855000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1004000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1128000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>884000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>876000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1045000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,8 +2847,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,8 +3051,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3015,138 +3119,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4798000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4701000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4777000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4788000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3700000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4926000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4932000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5064000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5203000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5515000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5726000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5772000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5535000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2863000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2871000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2900000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2154000</v>
       </c>
       <c r="U48" s="3">
         <v>2154000</v>
       </c>
       <c r="V48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="W48" s="3">
         <v>2078000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34443000</v>
+      </c>
+      <c r="E49" s="3">
         <v>34333000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33300000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32990000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32139000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30405000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29270000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29546000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29454000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28700000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28975000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29245000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29926000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11429000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11512000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11580000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11684000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11800000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11407000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11415000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,47 +3391,50 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4539000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6464000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6406000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6348000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>4814000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4837000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4810000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4358000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3996000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3946000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3915000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3331,8 +3450,8 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3340,8 +3459,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>555255000</v>
+      </c>
+      <c r="E54" s="3">
         <v>548438000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>545123000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>543979000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>541241000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>529884000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>521964000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>517537000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>509228000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>499183000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>504336000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>506229000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>473078000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>236750000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>230872000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>227683000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>225697000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>222885000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>222681000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>220729000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,73 +3649,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13053000</v>
+      </c>
+      <c r="E57" s="3">
         <v>13299000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11839000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10158000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12677000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10370000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9986000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8645000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9654000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9284000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9324000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9552000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10115000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5274000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5642000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5041000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5433000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5434000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5717000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5140000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,64 +3783,67 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1477000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1471000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1529000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1694000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1742000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1812000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1896000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1927000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2061000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2079000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2121000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>968000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>961000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>959000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -3715,8 +3851,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,73 +3919,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43201000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31170000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30316000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>32913000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35050000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36970000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36821000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36879000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38583000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40127000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39499000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>65662000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37198000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23880000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20897000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22983000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21960000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20799000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21641000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20959000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3910,8 +4055,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>494741000</v>
+      </c>
+      <c r="E66" s="3">
         <v>487650000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>482148000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>478958000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>471970000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>460984000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>453628000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>449661000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>438421000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>429316000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>435559000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>440335000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>406694000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>204516000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>199169000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>196860000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>195575000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>192937000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>192901000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>191117000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4349,28 +4516,28 @@
         <v>6673000</v>
       </c>
       <c r="J70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="K70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>8048000</v>
       </c>
       <c r="L70" s="3">
         <v>8048000</v>
       </c>
       <c r="M70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="N70" s="3">
         <v>7143000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>4599000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>5102000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>3053000</v>
       </c>
       <c r="R70" s="3">
         <v>3053000</v>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26264000</v>
+      </c>
+      <c r="E72" s="3">
         <v>25344000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24500000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23687000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22998000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22114000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21139000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20184000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19455000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18834000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18373000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18076000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19806000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19440000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19050000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18518000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18118000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17673000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17197000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16712000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53841000</v>
+      </c>
+      <c r="E76" s="3">
         <v>54115000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56302000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58348000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62598000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62227000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61663000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>60752000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62759000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61819000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61634000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61295000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>61282000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29177000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28650000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27770000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27069000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26895000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26727000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26559000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1536000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1454000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1327000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1524000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1616000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1559000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1334000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1228000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1068000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>902000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>986000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>702000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>735000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>842000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>749000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>754000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>789000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>775000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>745000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E83" s="3">
         <v>324000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>345000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>332000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>343000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>354000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>342000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>345000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>401000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>388000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>420000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>399000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>213000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>141000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>137000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>142000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>139000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>136000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>138000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3534000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3770000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3965000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-188000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4807000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-218000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3336000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2408000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>425000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4628000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-444000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1775000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>934000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-745000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1371000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1551000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1119000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>308000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,8 +5704,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5499,50 +5719,50 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
         <v>-128000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-139000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-99000</v>
       </c>
       <c r="K91" s="3">
         <v>-99000</v>
       </c>
       <c r="L91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-130000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-122000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-464000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-34000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5550,8 +5770,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10763000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8404000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10771000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12134000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3119000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7546000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>17719000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-477000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>203000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-689000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-691000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-639000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-637000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-638000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-640000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-602000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-607000</v>
       </c>
       <c r="L96" s="3">
         <v>-607000</v>
       </c>
       <c r="M96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="N96" s="3">
         <v>-605000</v>
       </c>
       <c r="O96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="P96" s="3">
         <v>-345000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-309000</v>
       </c>
       <c r="S96" s="3">
         <v>-309000</v>
       </c>
       <c r="T96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-313000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-290000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-292000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,73 +6272,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6425000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3746000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>797000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9049000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7795000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6385000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1233000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10178000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8917000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>32170000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5135000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1125000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>207000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1677000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-281000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>589000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-483000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-804000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-888000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6009000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8827000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>468000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13264000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4849000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17283000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16161000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>346000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-271000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>834000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-58000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>28000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5785000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5238000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4369000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3673000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3357000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3411000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3426000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3443000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3494000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3611000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3623000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3888000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4426000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2812000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2218000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2206000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2173000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2136000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2069000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1994000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1921000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,76 +1199,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-163000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-140000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-143000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-137000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-143000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-145000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-142000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-144000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-172000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-170000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-178000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-165000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-32000</v>
       </c>
       <c r="S15" s="3">
         <v>-32000</v>
       </c>
       <c r="T15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="U15" s="3">
         <v>-34000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-33000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-31000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-33000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2419000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1724000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>858000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>437000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-131000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-236000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>257000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>245000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>261000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>440000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>776000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>756000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>635000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>688000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>632000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>577000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>517000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>472000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>438000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3514000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3511000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3236000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3278000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3346000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3557000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3679000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3237000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3366000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3362000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3448000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3650000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2056000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1583000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1518000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1541000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1559000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1552000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1522000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1483000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,144 +1465,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1457000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1495000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1511000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1332000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1532000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1377000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-537000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-399000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-566000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-549000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-503000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-498000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-506000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2384000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2324000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2249000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2078000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2312000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2481000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2415000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2169000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2042000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1784000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1569000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1686000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1092000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1187000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1258000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1112000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1152000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1188000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1160000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1115000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1676,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2019000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1904000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1746000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1969000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2127000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2073000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1824000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1641000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1396000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1149000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1287000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>879000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1046000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1119000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>975000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1010000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1049000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1024000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>977000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E24" s="3">
         <v>337000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>363000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>372000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>330000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>367000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>423000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>415000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>351000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>311000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>255000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>191000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>224000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>153000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>218000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>234000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>177000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>232000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>210000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>202000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>186000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1515000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1682000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1637000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1532000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1416000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1602000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1704000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1658000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1473000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1330000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1141000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>958000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1063000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>726000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>828000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>885000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>798000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>778000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>839000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>822000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>791000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1610000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1536000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1454000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1327000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1524000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1616000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1559000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1334000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1228000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1068000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>902000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>986000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>702000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>735000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>842000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>749000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>727000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>789000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>775000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>745000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2080,17 +2140,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2098,23 +2158,26 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>27000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1457000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1495000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1511000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1332000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1532000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1377000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1430000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1606000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1413000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1725000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1966000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2299000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2363000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1177000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>537000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>399000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>566000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>549000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>503000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>498000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>506000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1610000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1536000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1454000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1327000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1524000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1616000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1559000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1334000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1228000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1068000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>902000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>986000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>702000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>735000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>842000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>749000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>754000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>789000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>775000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>745000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1610000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1536000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1454000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1327000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1524000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1616000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1559000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1334000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1228000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1068000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>902000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>986000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>702000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>735000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>842000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>749000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>754000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>789000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>775000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>745000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,144 +2731,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4629000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5379000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5031000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5511000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5516000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5085000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4656000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5077000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5097000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5029000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4194000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5116000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5312000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4084000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2027000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1831000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1873000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2753000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2123000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2046000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1869000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>41214000</v>
+      </c>
+      <c r="E42" s="3">
         <v>24812000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26766000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26868000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33961000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>23661000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>27086000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31946000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36528000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>23457000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>43098000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>45693000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>42150000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22131000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>980000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>855000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1004000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1128000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>884000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>876000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1045000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,8 +2942,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,8 +3155,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3122,144 +3226,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4670000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4798000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4701000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4777000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4788000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3700000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4926000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4932000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5064000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5203000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5515000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5726000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5772000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5535000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2863000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2871000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2900000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2154000</v>
       </c>
       <c r="V48" s="3">
         <v>2154000</v>
       </c>
       <c r="W48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="X48" s="3">
         <v>2078000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33852000</v>
+      </c>
+      <c r="E49" s="3">
         <v>34443000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34333000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33300000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32990000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32139000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30405000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29270000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29546000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29454000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28700000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28975000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29245000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29926000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11429000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11512000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11580000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11684000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11800000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11407000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11415000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,50 +3510,53 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5885000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4539000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6464000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6406000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6348000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>4814000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4837000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4810000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4358000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3996000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3946000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3915000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3453,8 +3572,8 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3462,8 +3581,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>574354000</v>
+      </c>
+      <c r="E54" s="3">
         <v>555255000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>548438000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>545123000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>543979000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>541241000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>529884000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>521964000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>517537000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>509228000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>499183000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>504336000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>506229000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>473078000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>236750000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>230872000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>227683000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>225697000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>222885000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>222681000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>220729000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,76 +3779,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11892000</v>
+      </c>
+      <c r="E57" s="3">
         <v>13053000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13299000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11839000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10158000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12677000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10370000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9986000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8645000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9654000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9284000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9324000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9552000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10115000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5274000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5642000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5041000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5433000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5434000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5717000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5140000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,67 +3919,70 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1545000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1477000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1471000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1529000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1694000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1742000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1812000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1896000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1927000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2061000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2079000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2121000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>968000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>961000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>959000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -3854,8 +3990,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,76 +4061,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>69893000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43201000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31170000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30316000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>32913000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35050000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36970000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36821000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36879000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38583000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40127000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39499000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>65662000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37198000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23880000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20897000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22983000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21960000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20799000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21641000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20959000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4058,8 +4203,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>511982000</v>
+      </c>
+      <c r="E66" s="3">
         <v>494741000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>487650000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>482148000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>478958000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>471970000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>460984000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>453628000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>449661000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>438421000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>429316000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>435559000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>440335000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>406694000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>204516000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>199169000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>196860000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>195575000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>192937000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>192901000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>191117000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4519,28 +4686,28 @@
         <v>6673000</v>
       </c>
       <c r="K70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="L70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>8048000</v>
       </c>
       <c r="M70" s="3">
         <v>8048000</v>
       </c>
       <c r="N70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="O70" s="3">
         <v>7143000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>4599000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>5102000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="R70" s="3">
-        <v>3053000</v>
       </c>
       <c r="S70" s="3">
         <v>3053000</v>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27038000</v>
+      </c>
+      <c r="E72" s="3">
         <v>26264000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25344000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24500000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23687000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22998000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22114000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21139000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20184000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19455000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18834000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18373000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18076000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19806000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19440000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19050000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18518000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18118000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17673000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17197000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16712000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55699000</v>
+      </c>
+      <c r="E76" s="3">
         <v>53841000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54115000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56302000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58348000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62598000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62227000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61663000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60752000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62759000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61819000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61634000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>61295000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>61282000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29177000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28650000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27770000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27069000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26895000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26727000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26559000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1610000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1536000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1454000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1327000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1524000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1616000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1559000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1334000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1228000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1068000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>902000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>986000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>702000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>735000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>842000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>749000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>754000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>789000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>775000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>745000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E83" s="3">
         <v>365000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>324000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>345000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>332000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>343000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>354000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>342000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>345000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>401000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>388000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>420000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>399000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>213000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>141000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>139000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>137000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>142000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>139000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>136000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>138000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3534000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3770000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3965000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-188000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4807000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-218000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3336000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2408000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>425000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4628000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-444000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1775000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>934000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-745000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1371000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1551000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1119000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>308000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,67 +5924,68 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-564000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-76000</v>
       </c>
       <c r="H91" s="3">
-        <v>-128000</v>
+        <v>-99000</v>
       </c>
       <c r="I91" s="3">
-        <v>-139000</v>
+        <v>-99000</v>
       </c>
       <c r="J91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-99000</v>
       </c>
       <c r="L91" s="3">
         <v>-99000</v>
       </c>
       <c r="M91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-130000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-122000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-464000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-34000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5773,8 +5993,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2050000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10763000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8404000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10771000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12134000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3119000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7546000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>17719000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-477000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>203000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-691000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-689000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-691000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-639000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-637000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-638000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-640000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-602000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-607000</v>
       </c>
       <c r="M96" s="3">
         <v>-607000</v>
       </c>
       <c r="N96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="O96" s="3">
         <v>-605000</v>
       </c>
       <c r="P96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="Q96" s="3">
         <v>-345000</v>
       </c>
       <c r="R96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-309000</v>
       </c>
       <c r="T96" s="3">
         <v>-309000</v>
       </c>
       <c r="U96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-313000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-290000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-292000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,76 +6517,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17107000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6425000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3746000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>797000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9049000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7795000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6385000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1233000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10178000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8917000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>32170000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5135000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1125000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>207000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1677000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-281000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>589000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-483000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,72 +6659,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15175000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-804000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-888000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6009000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8827000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>468000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13264000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4849000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17283000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16161000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>346000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-271000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>834000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-58000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>28000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,169 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6176000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5785000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5238000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4369000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3673000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3357000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3411000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3426000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3443000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3494000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3611000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3623000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3888000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4426000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2812000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2218000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2206000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2173000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2136000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2069000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1994000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1921000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +897,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,79 +1221,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-136000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-163000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-140000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-143000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-137000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-143000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-145000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-142000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-144000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-172000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-170000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-178000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-165000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-71000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-32000</v>
       </c>
       <c r="T15" s="3">
         <v>-32000</v>
       </c>
       <c r="U15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="V15" s="3">
         <v>-34000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-33000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-31000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-33000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3089000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2419000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1724000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>858000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>437000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-131000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-236000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>245000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>261000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>440000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>776000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>756000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>635000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>688000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>632000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>577000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>517000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>472000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>438000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3087000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3366000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3514000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3511000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3236000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3278000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3346000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3557000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3679000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3237000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3366000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3362000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3448000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3650000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2056000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1583000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1518000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1541000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1559000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1552000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1522000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1483000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,150 +1498,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1455000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1457000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1495000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1511000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1332000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1532000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1377000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-537000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-399000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-566000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-549000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-503000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-498000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-506000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2225000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2384000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2324000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2249000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2078000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2312000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2481000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2415000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2169000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2042000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1784000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1569000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1686000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1092000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1187000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1258000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1112000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1152000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1188000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1160000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1115000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,150 +1718,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1909000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2019000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1904000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1746000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1969000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2127000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2073000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1824000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1641000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1396000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1149000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1287000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>879000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1046000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1119000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>975000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1010000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1049000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1024000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>977000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E24" s="3">
         <v>394000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>337000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>363000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>372000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>330000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>367000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>423000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>415000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>351000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>311000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>255000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>191000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>224000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>153000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>218000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>234000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>177000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>232000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>210000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>202000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>186000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1515000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1682000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1637000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1532000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1416000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1602000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1704000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1658000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1473000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1330000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1141000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>958000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1063000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>726000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>828000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>885000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>798000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>778000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>839000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>822000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>791000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1410000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1610000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1536000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1454000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1327000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1524000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1616000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1559000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1334000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1228000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1068000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>902000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>986000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>702000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>735000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>842000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>749000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>727000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>789000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>775000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>745000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2143,17 +2203,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2161,23 +2221,26 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>27000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1457000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1495000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1511000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1332000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1532000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1377000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1430000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1606000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1413000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1725000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1966000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2299000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2363000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1177000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>537000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>399000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>566000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>549000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>503000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>498000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>506000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1410000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1610000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1536000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1454000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1327000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1524000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1616000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1559000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1334000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1228000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1068000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>902000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>986000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>702000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>735000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>842000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>749000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>754000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>789000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>775000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>745000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1410000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1610000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1536000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1454000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1327000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1524000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1616000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1559000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1334000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1228000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1068000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>902000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>986000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>702000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>735000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>842000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>749000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>754000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>789000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>775000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>745000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,150 +2817,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4629000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5379000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5031000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5511000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5516000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5085000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4656000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5077000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5097000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5029000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4194000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5116000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5312000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4084000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2027000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1831000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1873000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2753000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2123000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2046000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1869000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32445000</v>
+      </c>
+      <c r="E42" s="3">
         <v>41214000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24812000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26766000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26868000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33961000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>23661000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>27086000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31946000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36528000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23457000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>43098000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>45693000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>42150000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22131000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>980000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>855000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1004000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1128000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>884000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>876000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1045000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,8 +3037,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3111,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3185,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,8 +3259,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3229,150 +3333,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4581000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4670000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4798000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4701000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4777000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4788000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3700000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4926000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4932000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5064000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5203000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5515000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5726000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5772000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5535000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2863000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2871000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2900000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2154000</v>
       </c>
       <c r="W48" s="3">
         <v>2154000</v>
       </c>
       <c r="X48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>2078000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33913000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33852000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34443000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34333000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33300000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32990000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32139000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30405000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29270000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29546000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29454000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28700000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28975000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29245000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29926000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11429000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11512000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11580000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11684000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11800000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11407000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11415000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,53 +3629,56 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5927000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5885000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4539000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6464000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6406000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6348000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>4814000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4837000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4810000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4358000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3996000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3946000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3915000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3575,8 +3694,8 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3584,8 +3703,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>554549000</v>
+      </c>
+      <c r="E54" s="3">
         <v>574354000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>555255000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>548438000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>545123000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>543979000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>541241000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>529884000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>521964000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>517537000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>509228000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>499183000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>504336000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>506229000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>473078000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>236750000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>230872000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>227683000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>225697000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>222885000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>222681000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>220729000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,79 +3909,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14160000</v>
+      </c>
+      <c r="E57" s="3">
         <v>11892000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13053000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13299000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11839000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10158000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12677000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10370000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9986000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8645000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9654000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9284000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9324000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9552000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10115000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5274000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5642000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5041000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5433000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5434000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5717000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5140000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,70 +4055,73 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1498000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1545000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1477000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1471000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1529000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1694000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1742000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1812000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1896000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1927000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2061000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2079000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2121000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>968000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>961000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>959000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -3993,8 +4129,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,79 +4203,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44747000</v>
+      </c>
+      <c r="E61" s="3">
         <v>69893000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43201000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31170000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30316000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32913000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35050000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36970000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36821000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36879000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38583000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40127000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39499000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>65662000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37198000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23880000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20897000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22983000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21960000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20799000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21641000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20959000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4206,8 +4351,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>491023000</v>
+      </c>
+      <c r="E66" s="3">
         <v>511982000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>494741000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>487650000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>482148000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>478958000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>471970000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>460984000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>453628000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>449661000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>438421000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>429316000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>435559000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>440335000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>406694000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>204516000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>199169000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>196860000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>195575000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>192937000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>192901000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>191117000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4689,28 +4856,28 @@
         <v>6673000</v>
       </c>
       <c r="L70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="M70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>8048000</v>
       </c>
       <c r="N70" s="3">
         <v>8048000</v>
       </c>
       <c r="O70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="P70" s="3">
         <v>7143000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>4599000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>5102000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="S70" s="3">
-        <v>3053000</v>
       </c>
       <c r="T70" s="3">
         <v>3053000</v>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27577000</v>
+      </c>
+      <c r="E72" s="3">
         <v>27038000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>26264000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25344000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24500000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23687000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22998000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22114000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21139000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20184000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19455000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18834000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18373000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18076000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19806000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19440000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19050000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18518000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18118000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17673000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17197000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16712000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56853000</v>
+      </c>
+      <c r="E76" s="3">
         <v>55699000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53841000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54115000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56302000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58348000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62598000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>62227000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61663000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60752000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>62759000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61819000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>61634000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>61295000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>61282000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29177000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28650000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27770000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27069000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26895000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26727000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26559000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1410000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1610000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1536000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1454000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1327000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1524000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1616000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1559000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1334000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1228000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1068000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>902000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>986000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>702000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>735000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>842000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>749000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>754000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>789000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>775000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>745000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E83" s="3">
         <v>316000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>365000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>324000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>345000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>332000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>343000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>354000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>342000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>345000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>401000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>388000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>420000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>399000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>213000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>141000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>139000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>137000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>142000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>139000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>136000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>138000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3730000</v>
+      </c>
+      <c r="E89" s="3">
         <v>118000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3534000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3770000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3965000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-188000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4807000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-218000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3336000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2408000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>425000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4628000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-444000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1775000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>934000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-745000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1371000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1551000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1119000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>308000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,8 +6144,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5952,43 +6172,43 @@
         <v>-130000</v>
       </c>
       <c r="K91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-99000</v>
       </c>
       <c r="M91" s="3">
         <v>-99000</v>
       </c>
       <c r="N91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-130000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-122000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-464000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-34000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -5996,8 +6216,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11567000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2050000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10763000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8404000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10771000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12134000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3119000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7546000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>17719000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-477000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>203000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-693000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-691000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-689000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-691000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-639000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-637000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-638000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-640000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-602000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-607000</v>
       </c>
       <c r="N96" s="3">
         <v>-607000</v>
       </c>
       <c r="O96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="P96" s="3">
         <v>-605000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="R96" s="3">
         <v>-345000</v>
       </c>
       <c r="S96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-309000</v>
       </c>
       <c r="U96" s="3">
         <v>-309000</v>
       </c>
       <c r="V96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-313000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-290000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-292000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,79 +6762,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21883000</v>
+      </c>
+      <c r="E100" s="3">
         <v>17107000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6425000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3746000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>797000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9049000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7795000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6385000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1233000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10178000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8917000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>32170000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5135000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1125000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>207000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1677000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-281000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>589000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-483000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6662,75 +6910,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6586000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15175000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-804000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-888000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6009000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8827000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>468000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13264000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4849000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17283000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16161000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>346000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-271000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>834000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-58000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>28000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>TFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6229000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6176000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5785000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5238000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4369000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3673000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3357000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3411000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3426000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3443000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3494000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3611000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3623000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3888000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4426000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2812000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2218000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2206000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2173000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2136000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2069000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1994000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1921000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,82 +1243,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-131000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-136000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-163000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-140000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-143000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-137000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-143000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-145000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-142000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-144000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-172000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-170000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-165000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-71000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-29000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-32000</v>
       </c>
       <c r="U15" s="3">
         <v>-32000</v>
       </c>
       <c r="V15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="W15" s="3">
         <v>-34000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-33000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3162000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3089000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2419000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1724000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>858000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>437000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-131000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-236000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>245000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>261000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>440000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>776000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>756000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>635000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>688000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>632000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>577000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>517000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>472000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>438000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3067000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3087000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3366000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3514000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3511000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3236000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3278000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3346000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3557000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3679000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3237000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3366000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3362000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3448000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3650000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2056000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1583000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1518000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1541000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1559000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1552000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1522000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1483000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1506000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,156 +1531,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1639000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1455000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1457000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1495000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1511000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1332000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1532000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1377000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1606000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1413000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1725000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1966000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2299000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2363000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1177000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-537000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-399000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-566000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-549000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-503000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-498000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-506000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-630000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1730000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1933000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2225000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2384000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2324000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2249000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2078000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2312000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2481000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2415000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2169000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2042000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1784000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1569000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1686000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1092000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1187000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1258000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1112000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1152000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1188000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1160000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1115000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,156 +1760,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1428000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1632000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1909000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2019000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1904000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1746000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1969000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2127000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2073000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1824000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1641000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1396000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1287000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>879000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1046000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1119000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>975000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1010000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1049000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1024000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>977000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>876000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E24" s="3">
         <v>287000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>394000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>337000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>363000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>372000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>330000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>367000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>423000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>415000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>351000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>311000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>255000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>191000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>224000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>153000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>218000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>234000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>177000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>232000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>210000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>202000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>186000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1345000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1515000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1682000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1637000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1532000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1416000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1602000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1704000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1658000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1473000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1330000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1141000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>958000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1063000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>726000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>828000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>885000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>798000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>778000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>839000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>822000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>791000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1234000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1410000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1610000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1536000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1454000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1327000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1524000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1616000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1559000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1334000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1228000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1068000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>902000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>986000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>702000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>735000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>842000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>749000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>727000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>789000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>775000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>745000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>571000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,17 +2266,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2224,23 +2284,26 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>27000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1455000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1457000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1495000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1511000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1332000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1532000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1377000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1430000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1606000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1413000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1725000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1966000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2299000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2363000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1177000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>537000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>399000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>566000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>549000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>503000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>498000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>506000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1234000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1410000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1610000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1536000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1454000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1327000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1524000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1616000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1559000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1334000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1228000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1068000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>902000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>986000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>702000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>735000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>842000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>749000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>754000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>789000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>775000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>745000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1234000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1410000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1610000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1536000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1454000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1327000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1524000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1616000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1559000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1334000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1228000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1068000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>902000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>986000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>702000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>735000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>842000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>749000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>754000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>789000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>775000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>745000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,156 +2903,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5156000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4782000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4629000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5379000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5031000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5511000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5516000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5085000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4656000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5077000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5097000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5029000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4194000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5116000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5312000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4084000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2027000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1831000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1873000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2753000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2123000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2046000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1869000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2243000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31827000</v>
+      </c>
+      <c r="E42" s="3">
         <v>32445000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>41214000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24812000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26766000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26868000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33961000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23661000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27086000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31946000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36528000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>23457000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>43098000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>45693000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>42150000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22131000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>980000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>855000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1004000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1128000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>884000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>876000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1045000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>513000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3040,8 +3132,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,8 +3363,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3336,156 +3440,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4506000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4581000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4670000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4798000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4701000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4777000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4788000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3700000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4926000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4932000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5064000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5203000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5515000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5726000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5772000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5535000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2863000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2871000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2900000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2118000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2154000</v>
       </c>
       <c r="X48" s="3">
         <v>2154000</v>
       </c>
       <c r="Y48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>2078000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2055000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33808000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33913000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33852000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34443000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>34333000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33300000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32990000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32139000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30405000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29270000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29546000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29454000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28700000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28975000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29245000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29926000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11429000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11512000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11580000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11684000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11800000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11407000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>11415000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,56 +3748,59 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5964000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5927000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5885000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4539000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6464000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6406000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6348000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>4814000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4837000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4810000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4358000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3996000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3946000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3915000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3697,8 +3816,8 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3706,8 +3825,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>542707000</v>
+      </c>
+      <c r="E54" s="3">
         <v>554549000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>574354000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>555255000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>548438000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>545123000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>543979000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>541241000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>529884000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>521964000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>517537000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>509228000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>499183000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>504336000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>506229000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>473078000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>236750000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>230872000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>227683000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>225697000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>222885000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>222681000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>220729000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>221642000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,82 +4039,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14523000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14160000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11892000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13053000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13299000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11839000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10158000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12677000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10370000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9986000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8645000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9654000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9284000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9324000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9552000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10115000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5274000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5642000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5041000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5433000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5434000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5717000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5140000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5990000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4058,73 +4191,76 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1460000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1498000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1545000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1477000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1471000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1529000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1694000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1742000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1812000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1896000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1927000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2061000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2079000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2121000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>968000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>961000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>959000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4132,8 +4268,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,82 +4345,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41230000</v>
+      </c>
+      <c r="E61" s="3">
         <v>44747000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>69893000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43201000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31170000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30316000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32913000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35050000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36970000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36821000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36879000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38583000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40127000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39499000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>65662000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37198000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23880000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20897000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22983000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21960000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20799000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21641000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20959000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21168000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4354,8 +4499,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>480867000</v>
+      </c>
+      <c r="E66" s="3">
         <v>491023000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>511982000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>494741000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>487650000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>482148000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>478958000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>471970000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>460984000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>453628000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>449661000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>438421000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>429316000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>435559000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>440335000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>406694000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>204516000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>199169000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>196860000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>195575000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>192937000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>192901000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>191117000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>191994000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4859,28 +5026,28 @@
         <v>6673000</v>
       </c>
       <c r="M70" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="N70" s="3">
         <v>7124000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>8048000</v>
       </c>
       <c r="O70" s="3">
         <v>8048000</v>
       </c>
       <c r="P70" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>7143000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>4599000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>5102000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3057000</v>
-      </c>
-      <c r="T70" s="3">
-        <v>3053000</v>
       </c>
       <c r="U70" s="3">
         <v>3053000</v>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>3053000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>3053000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27944000</v>
+      </c>
+      <c r="E72" s="3">
         <v>27577000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>27038000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>26264000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25344000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>24500000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23687000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22998000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22114000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21139000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20184000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19455000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18834000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18373000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18076000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19806000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19440000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19050000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18518000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18118000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17673000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17197000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16712000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16259000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55167000</v>
+      </c>
+      <c r="E76" s="3">
         <v>56853000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55699000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53841000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54115000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56302000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58348000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>62598000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62227000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61663000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60752000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>62759000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>61819000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>61634000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>61295000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>61282000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29177000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28650000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27770000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27069000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26895000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26727000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>26559000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>26595000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1234000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1410000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1610000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1536000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1454000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1327000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1524000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1616000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1559000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1334000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1228000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1068000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>902000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>986000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>702000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>735000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>842000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>749000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>754000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>789000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>775000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>745000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E83" s="3">
         <v>301000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>316000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>365000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>324000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>345000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>332000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>343000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>354000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>342000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>345000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>401000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>388000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>420000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>399000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>213000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>141000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>139000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>137000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>142000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>139000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>136000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>138000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2407000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3730000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>118000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3534000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3770000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3965000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-188000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4807000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-218000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3336000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2408000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>425000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4628000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-444000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1775000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>934000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-745000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1371000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1551000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1119000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>308000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1676000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,8 +6364,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6175,43 +6395,43 @@
         <v>-130000</v>
       </c>
       <c r="L91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-76000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-99000</v>
       </c>
       <c r="N91" s="3">
         <v>-99000</v>
       </c>
       <c r="O91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-130000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-464000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-34000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6219,8 +6439,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8348000</v>
+      </c>
+      <c r="E94" s="3">
         <v>11567000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2050000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10763000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8404000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10771000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12134000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12897000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10144000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3119000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29565000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2118000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7546000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19515000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>17719000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6564000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-477000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2214000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1170000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1766000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>203000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2166000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,8 +6701,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6478,73 +6711,76 @@
         <v>-693000</v>
       </c>
       <c r="E96" s="3">
+        <v>-693000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-691000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-689000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-691000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-639000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-637000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-638000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-640000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-602000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-605000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-607000</v>
       </c>
       <c r="O96" s="3">
         <v>-607000</v>
       </c>
       <c r="P96" s="3">
-        <v>-605000</v>
+        <v>-607000</v>
       </c>
       <c r="Q96" s="3">
         <v>-605000</v>
       </c>
       <c r="R96" s="3">
-        <v>-345000</v>
+        <v>-605000</v>
       </c>
       <c r="S96" s="3">
         <v>-345000</v>
       </c>
       <c r="T96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-310000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-309000</v>
       </c>
       <c r="V96" s="3">
         <v>-309000</v>
       </c>
       <c r="W96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-313000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-290000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-292000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-258000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,82 +7007,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10933000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21883000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17107000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6425000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3746000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>797000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9049000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7795000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6385000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1233000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10178000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8917000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2673000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>32170000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1114000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5135000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1125000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>207000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1677000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-281000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>589000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-483000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6913,78 +7161,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6586000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15175000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-804000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-888000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6009000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8827000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>468000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6730000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5575000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13264000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18240000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4089000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4849000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17283000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16161000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>346000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-271000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1015000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>834000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>28000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15000</v>
       </c>
     </row>
